--- a/data/trans_orig/P36BPD02_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD02_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>77916</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>61882</v>
+        <v>63788</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>95649</v>
+        <v>96006</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1223259051465353</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09715316590782794</v>
+        <v>0.1001447540310625</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1501662160615467</v>
+        <v>0.1507261589773982</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>187</v>
@@ -762,19 +762,19 @@
         <v>110999</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>96769</v>
+        <v>96931</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>128427</v>
+        <v>129887</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1601439414473313</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1396133014905669</v>
+        <v>0.1398470362437219</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1852874609131193</v>
+        <v>0.1873937861058772</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>276</v>
@@ -783,19 +783,19 @@
         <v>188916</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>165839</v>
+        <v>168203</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>211741</v>
+        <v>212826</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1420334211558692</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1246840363426024</v>
+        <v>0.1264609974778858</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1591947584001644</v>
+        <v>0.1600103946836721</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>297468</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>272330</v>
+        <v>269828</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>323703</v>
+        <v>323906</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4670153845776941</v>
+        <v>0.4670153845776942</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.427549753917858</v>
+        <v>0.4236212304100637</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5082032203084188</v>
+        <v>0.5085217158444302</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>522</v>
@@ -833,19 +833,19 @@
         <v>304905</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>284264</v>
+        <v>282937</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>328013</v>
+        <v>327069</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4398998114109697</v>
+        <v>0.4398998114109696</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4101203168423076</v>
+        <v>0.4082060123827924</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4732392510824269</v>
+        <v>0.4718774559973886</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>841</v>
@@ -854,19 +854,19 @@
         <v>602372</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>570945</v>
+        <v>566318</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>639765</v>
+        <v>634612</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4528850741608564</v>
+        <v>0.4528850741608563</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4292568509211238</v>
+        <v>0.4257784083303284</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4809983355797512</v>
+        <v>0.4771242065106904</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>261572</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>235772</v>
+        <v>235311</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>289069</v>
+        <v>287852</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4106587102757706</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3701550727002767</v>
+        <v>0.3694303145173065</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4538294203175509</v>
+        <v>0.4519187957117813</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>462</v>
@@ -904,19 +904,19 @@
         <v>277219</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>253938</v>
+        <v>255640</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>298454</v>
+        <v>298593</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3999562471416991</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3663680466299923</v>
+        <v>0.3688233372017432</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4305927611407227</v>
+        <v>0.4307932958178964</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>746</v>
@@ -925,19 +925,19 @@
         <v>538790</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>505075</v>
+        <v>504810</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>573160</v>
+        <v>572866</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4050815046832745</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3797332500301493</v>
+        <v>0.3795338810645255</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4309219590726712</v>
+        <v>0.4307009202736313</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>193312</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>164842</v>
+        <v>168559</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>221436</v>
+        <v>223567</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1960469328886093</v>
+        <v>0.1960469328886094</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1671743846008437</v>
+        <v>0.1709436989151087</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2245691694413913</v>
+        <v>0.2267305893272067</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>204</v>
@@ -1050,19 +1050,19 @@
         <v>156826</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>135633</v>
+        <v>135492</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>177849</v>
+        <v>180047</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1548957176425947</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1339635699422786</v>
+        <v>0.1338244917302669</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1756606514415718</v>
+        <v>0.1778316783704801</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>369</v>
@@ -1071,19 +1071,19 @@
         <v>350138</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>315084</v>
+        <v>316284</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>385751</v>
+        <v>385427</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1751994142361563</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1576594935951425</v>
+        <v>0.1582599685387792</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1930193349971894</v>
+        <v>0.1928573409969755</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>449060</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>414743</v>
+        <v>414382</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>480973</v>
+        <v>487128</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4554134648336258</v>
+        <v>0.4554134648336259</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4206113155086336</v>
+        <v>0.4202444977547872</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4877776091716202</v>
+        <v>0.4940197687434454</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>736</v>
@@ -1121,19 +1121,19 @@
         <v>505044</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>478085</v>
+        <v>475549</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>535781</v>
+        <v>532977</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.4988286667443269</v>
+        <v>0.498828666744327</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.472201016923448</v>
+        <v>0.4696970020626039</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.529187413915759</v>
+        <v>0.5264175083674314</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1172</v>
@@ -1142,19 +1142,19 @@
         <v>954104</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>905261</v>
+        <v>908207</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>999663</v>
+        <v>1003580</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4774079363509892</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4529682082149828</v>
+        <v>0.4544421698177368</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5002044956998281</v>
+        <v>0.502164465579629</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>343677</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>309827</v>
+        <v>308412</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>377061</v>
+        <v>376692</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3485396022777648</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3142108355136368</v>
+        <v>0.312775502923677</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3823952992408821</v>
+        <v>0.3820210976720336</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>499</v>
@@ -1192,19 +1192,19 @@
         <v>350590</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>325642</v>
+        <v>325464</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>378884</v>
+        <v>378650</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3462756156130783</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3216340182278739</v>
+        <v>0.3214590659242948</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3742211102318998</v>
+        <v>0.3739900310833813</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>821</v>
@@ -1213,19 +1213,19 @@
         <v>694267</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>652638</v>
+        <v>647038</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>739423</v>
+        <v>736179</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3473926494128545</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3265626703752523</v>
+        <v>0.3237603547830436</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3699874416317285</v>
+        <v>0.3683642737484737</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>114968</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>93619</v>
+        <v>93495</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>138014</v>
+        <v>138426</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1554144139724618</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1265546695103674</v>
+        <v>0.126387031720447</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1865683139568535</v>
+        <v>0.1871251701167386</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>172</v>
@@ -1338,19 +1338,19 @@
         <v>139334</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>122197</v>
+        <v>120215</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>163387</v>
+        <v>162384</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1807484871717</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1585172830944447</v>
+        <v>0.1559471303286573</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2119502811435965</v>
+        <v>0.2106493778855987</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>269</v>
@@ -1359,19 +1359,19 @@
         <v>254302</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>226628</v>
+        <v>224784</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>287859</v>
+        <v>286401</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.168342429534277</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1500233211216683</v>
+        <v>0.1488021493596192</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1905565555904562</v>
+        <v>0.1895916116979714</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>362528</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>331251</v>
+        <v>333469</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>397417</v>
+        <v>393224</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4900694847389633</v>
+        <v>0.4900694847389634</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4477890319474765</v>
+        <v>0.4507862224168361</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5372320558090129</v>
+        <v>0.5315636821147322</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>450</v>
@@ -1409,19 +1409,19 @@
         <v>357501</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>332070</v>
+        <v>332161</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>383053</v>
+        <v>382933</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.4637617133999889</v>
+        <v>0.463761713399989</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4307723355572562</v>
+        <v>0.4308898336157426</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4969081516357016</v>
+        <v>0.4967536556324535</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>757</v>
@@ -1430,19 +1430,19 @@
         <v>720029</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>679485</v>
+        <v>684146</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>759033</v>
+        <v>762575</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4766445895556194</v>
+        <v>0.4766445895556193</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4498047591432899</v>
+        <v>0.4528907659083793</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.502464065086245</v>
+        <v>0.5048089727893074</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>262253</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>231234</v>
+        <v>234404</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>294242</v>
+        <v>291163</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3545161012885748</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3125844387257148</v>
+        <v>0.3168695988408505</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3977598079547606</v>
+        <v>0.3935975949189391</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>377</v>
@@ -1480,19 +1480,19 @@
         <v>274037</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>249467</v>
+        <v>251925</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>297084</v>
+        <v>297547</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3554897994283109</v>
+        <v>0.355489799428311</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3236167094109799</v>
+        <v>0.3268046754019878</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3853867668069851</v>
+        <v>0.385987349275444</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>606</v>
@@ -1501,19 +1501,19 @@
         <v>536290</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>499145</v>
+        <v>496788</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>576935</v>
+        <v>575521</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3550129809101036</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3304234162795434</v>
+        <v>0.3288635208098863</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3819192522323486</v>
+        <v>0.3809827542945214</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>141752</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>118990</v>
+        <v>116973</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>168915</v>
+        <v>166079</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1453842458861925</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1220392590151739</v>
+        <v>0.1199701540147696</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1732440628679003</v>
+        <v>0.1703350899542298</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>208</v>
@@ -1626,19 +1626,19 @@
         <v>167536</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>146472</v>
+        <v>145186</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>193948</v>
+        <v>191810</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1510104400029859</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1320243944682745</v>
+        <v>0.1308651226630968</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1748175155169559</v>
+        <v>0.172890581840438</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>348</v>
@@ -1647,19 +1647,19 @@
         <v>309287</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>274733</v>
+        <v>278232</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>342775</v>
+        <v>345840</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1483787497431417</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1318016316407234</v>
+        <v>0.1334802772079929</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1644440872259544</v>
+        <v>0.1659145960246548</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>437755</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>406817</v>
+        <v>402126</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>469516</v>
+        <v>466847</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4489728773388355</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4172418027949091</v>
+        <v>0.4124311398757073</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4815484599320658</v>
+        <v>0.4788103459910697</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>711</v>
@@ -1697,19 +1697,19 @@
         <v>511030</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>482179</v>
+        <v>482026</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>540391</v>
+        <v>542428</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4606227994787142</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4346179916863415</v>
+        <v>0.434480384007259</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4870875577040454</v>
+        <v>0.4889236999575258</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1171</v>
@@ -1718,19 +1718,19 @@
         <v>948785</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>902484</v>
+        <v>904463</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>991926</v>
+        <v>992384</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4551734697920705</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4329612560193246</v>
+        <v>0.4339105565304922</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.475870436640508</v>
+        <v>0.4760898726951495</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>395507</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>363350</v>
+        <v>364867</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>425152</v>
+        <v>428501</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.405642876774972</v>
+        <v>0.4056428767749721</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3726611404252697</v>
+        <v>0.3742175598688108</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.436047445333604</v>
+        <v>0.4394820732720499</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>630</v>
@@ -1768,19 +1768,19 @@
         <v>430867</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>400635</v>
+        <v>400818</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>457856</v>
+        <v>460337</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.3883667605182997</v>
+        <v>0.3883667605182998</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.361117480147327</v>
+        <v>0.3612822008683109</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4126942675414274</v>
+        <v>0.4149306686670206</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1025</v>
@@ -1789,19 +1789,19 @@
         <v>826374</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>782539</v>
+        <v>783027</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>871407</v>
+        <v>870503</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3964477804647879</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3754183530882063</v>
+        <v>0.375652477698224</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4180520100729457</v>
+        <v>0.4176182281585212</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>527947</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>482352</v>
+        <v>482048</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>572480</v>
+        <v>573737</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1581738044843941</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1445134075436782</v>
+        <v>0.1444221125490572</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1715157167542964</v>
+        <v>0.1718923941806875</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>771</v>
@@ -1914,19 +1914,19 @@
         <v>574695</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>538170</v>
+        <v>535387</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>615465</v>
+        <v>619437</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.160265766945079</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1500799565620696</v>
+        <v>0.1493037771720671</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1716353257811374</v>
+        <v>0.1727430850739147</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1262</v>
@@ -1935,19 +1935,19 @@
         <v>1102642</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1044175</v>
+        <v>1040039</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1168459</v>
+        <v>1162476</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1592572700574476</v>
+        <v>0.1592572700574475</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1508126814409217</v>
+        <v>0.1502152438537344</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1687633078302587</v>
+        <v>0.1678992013424893</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>1546811</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1489871</v>
+        <v>1488605</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1613906</v>
+        <v>1613852</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4634269044085055</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4463675263120574</v>
+        <v>0.4459881701653802</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4835283685244292</v>
+        <v>0.4835122485600398</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2419</v>
@@ -1985,19 +1985,19 @@
         <v>1678480</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1629271</v>
+        <v>1625572</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1733616</v>
+        <v>1730429</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4680792639463003</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4543562226219665</v>
+        <v>0.4533247636084246</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4834550231178973</v>
+        <v>0.482566250824069</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3941</v>
@@ -2006,19 +2006,19 @@
         <v>3225291</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3135426</v>
+        <v>3147700</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3301900</v>
+        <v>3305269</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.46583644639953</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.452857123892281</v>
+        <v>0.4546298232538105</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4769012388619037</v>
+        <v>0.477387878387199</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>1263009</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1201796</v>
+        <v>1198852</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1323837</v>
+        <v>1325182</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3783992911071005</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3600599185509605</v>
+        <v>0.3591777994912305</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3966232976555152</v>
+        <v>0.3970264128963005</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1968</v>
@@ -2056,19 +2056,19 @@
         <v>1332713</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1279978</v>
+        <v>1278825</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1380606</v>
+        <v>1385879</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3716549691086206</v>
+        <v>0.3716549691086207</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3569486426693318</v>
+        <v>0.3566271234035298</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3850109870830746</v>
+        <v>0.3864813905676184</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3198</v>
@@ -2077,19 +2077,19 @@
         <v>2595722</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2517761</v>
+        <v>2514669</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2679461</v>
+        <v>2677101</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3749062835430226</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3636462358405152</v>
+        <v>0.3631995686116832</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3870009181958278</v>
+        <v>0.3866600249931918</v>
       </c>
     </row>
     <row r="23">
